--- a/Input/GIG/benefits1.xlsx
+++ b/Input/GIG/benefits1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">Routine Maternity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental filter</t>
   </si>
   <si>
     <t xml:space="preserve">Wellness</t>
@@ -224,7 +227,7 @@
     <t xml:space="preserve">GIG</t>
   </si>
   <si>
-    <t xml:space="preserve">NE/Dubai</t>
+    <t xml:space="preserve">UAE-AbuDhabi</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
@@ -375,7 +378,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -409,6 +412,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,7 +461,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -467,6 +475,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,11 +505,11 @@
   </sheetPr>
   <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.52"/>
@@ -512,7 +524,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="31.31"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,416 +607,416 @@
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="AE2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG2" s="3" t="n">
         <v>44866</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI2" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="AI2" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="AE3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="AF4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="AD5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
